--- a/Code/Results/Cases/Case_2_188/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_188/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.213108670400146</v>
+        <v>1.087760546121217</v>
       </c>
       <c r="C2">
-        <v>0.1357092331472529</v>
+        <v>0.04825589860627133</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.01876768427271003</v>
+        <v>0.04750515606672234</v>
       </c>
       <c r="F2">
-        <v>1.45952168114772</v>
+        <v>0.4443680307746263</v>
       </c>
       <c r="G2">
-        <v>0.0008526450006403477</v>
+        <v>0.002585252955586159</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.061676477256214</v>
+        <v>1.919155205181539</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.218699836300573</v>
+        <v>0.9120395085126347</v>
       </c>
       <c r="L2">
-        <v>0.1684227731295067</v>
+        <v>0.2289908694571707</v>
       </c>
       <c r="M2">
-        <v>0.2578214559138026</v>
+        <v>0.2669324270465125</v>
       </c>
       <c r="N2">
-        <v>1.833149549660028</v>
+        <v>3.368090532953836</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.071379843969822</v>
+        <v>1.055881317380909</v>
       </c>
       <c r="C3">
-        <v>0.1171562663978705</v>
+        <v>0.04303695656498974</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.01819865713559565</v>
+        <v>0.0475541415498828</v>
       </c>
       <c r="F3">
-        <v>1.26082040731464</v>
+        <v>0.387822817061874</v>
       </c>
       <c r="G3">
-        <v>0.0008586162872594358</v>
+        <v>0.002588993524376928</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.047642121170568</v>
+        <v>1.923327444675095</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.070445542327434</v>
+        <v>0.8769177771089858</v>
       </c>
       <c r="L3">
-        <v>0.1539455849275058</v>
+        <v>0.2264469966731184</v>
       </c>
       <c r="M3">
-        <v>0.2298215660192184</v>
+        <v>0.2609855045765883</v>
       </c>
       <c r="N3">
-        <v>1.883669112887034</v>
+        <v>3.388522768829588</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9856758108595898</v>
+        <v>1.036902547631684</v>
       </c>
       <c r="C4">
-        <v>0.1059502724636729</v>
+        <v>0.03985125068159334</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.01786506533113652</v>
+        <v>0.04759677392551875</v>
       </c>
       <c r="F4">
-        <v>1.139972825279813</v>
+        <v>0.3531389305168915</v>
       </c>
       <c r="G4">
-        <v>0.0008623948072910534</v>
+        <v>0.00259141213044032</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.040566843659043</v>
+        <v>1.926603453672207</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.9808099540758235</v>
+        <v>0.855877347986933</v>
       </c>
       <c r="L4">
-        <v>0.1452701447123488</v>
+        <v>0.224994802584682</v>
       </c>
       <c r="M4">
-        <v>0.2129280108021909</v>
+        <v>0.2574755925714953</v>
       </c>
       <c r="N4">
-        <v>1.916572515547735</v>
+        <v>3.401907344600104</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9510506344453802</v>
+        <v>1.029318433428671</v>
       </c>
       <c r="C5">
-        <v>0.1014243385226763</v>
+        <v>0.0385576726479826</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.01773296022515591</v>
+        <v>0.04761731357747756</v>
       </c>
       <c r="F5">
-        <v>1.090973950927975</v>
+        <v>0.3390132514313251</v>
       </c>
       <c r="G5">
-        <v>0.0008639635217955222</v>
+        <v>0.002592428476196738</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.038052670864332</v>
+        <v>1.928118036153698</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.9445972289366011</v>
+        <v>0.84743511696675</v>
       </c>
       <c r="L5">
-        <v>0.1417847551935552</v>
+        <v>0.2244306541614236</v>
       </c>
       <c r="M5">
-        <v>0.2061123081820924</v>
+        <v>0.2560809107140933</v>
       </c>
       <c r="N5">
-        <v>1.930440480687537</v>
+        <v>3.407572596812294</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9453183805010497</v>
+        <v>1.028068156521499</v>
       </c>
       <c r="C6">
-        <v>0.1006750929537787</v>
+        <v>0.0383431515764272</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.01771125219188541</v>
+        <v>0.04762091570789462</v>
       </c>
       <c r="F6">
-        <v>1.082851457025441</v>
+        <v>0.336668177824194</v>
       </c>
       <c r="G6">
-        <v>0.0008642257742972069</v>
+        <v>0.002592599099436352</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.037656961330455</v>
+        <v>1.92838037727001</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.9386021250714691</v>
+        <v>0.8460412594631634</v>
       </c>
       <c r="L6">
-        <v>0.1412089176355806</v>
+        <v>0.224338647689116</v>
       </c>
       <c r="M6">
-        <v>0.2049845243647219</v>
+        <v>0.2558514786291681</v>
       </c>
       <c r="N6">
-        <v>1.932770603445896</v>
+        <v>3.408526045238176</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9852076695003973</v>
+        <v>1.036799658429999</v>
       </c>
       <c r="C7">
-        <v>0.1058890774789347</v>
+        <v>0.03983378643690116</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.01786326835466223</v>
+        <v>0.04759703809597582</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>0.3529483938344953</v>
       </c>
       <c r="G7">
-        <v>0.0008624158454743067</v>
+        <v>0.002591425712743238</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.040531466137821</v>
+        <v>1.926623152769942</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.9803203488596637</v>
+        <v>0.8557629589398914</v>
       </c>
       <c r="L7">
-        <v>0.1452229422390161</v>
+        <v>0.2249870823528468</v>
       </c>
       <c r="M7">
-        <v>0.2128358225593736</v>
+        <v>0.2574566390510995</v>
       </c>
       <c r="N7">
-        <v>1.9167577011548</v>
+        <v>3.401982894233797</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.163947371833984</v>
+        <v>1.076645170747952</v>
       </c>
       <c r="C8">
-        <v>0.1292698594392192</v>
+        <v>0.04645246046665363</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.01856812157643262</v>
+        <v>0.0475194461011279</v>
       </c>
       <c r="F8">
-        <v>1.390742831773508</v>
+        <v>0.4248636149813336</v>
       </c>
       <c r="G8">
-        <v>0.0008546810886331802</v>
+        <v>0.002586517465048233</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.056505809552036</v>
+        <v>1.920445539033842</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.16727028739993</v>
+        <v>0.8998206917717368</v>
       </c>
       <c r="L8">
-        <v>0.163384344450634</v>
+        <v>0.2280909815213192</v>
       </c>
       <c r="M8">
-        <v>0.2481010940594182</v>
+        <v>0.2648525817058776</v>
       </c>
       <c r="N8">
-        <v>1.850168781225413</v>
+        <v>3.374961371293992</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.526457984770815</v>
+        <v>1.159500748984556</v>
       </c>
       <c r="C9">
-        <v>0.1768901709517792</v>
+        <v>0.05958514405088522</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.02008229824371632</v>
+        <v>0.04746651352291309</v>
       </c>
       <c r="F9">
-        <v>1.895061171842798</v>
+        <v>0.5661985755041457</v>
       </c>
       <c r="G9">
-        <v>0.0008403669932752866</v>
+        <v>0.002577855093571557</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.100972645722983</v>
+        <v>1.914000623620019</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.546687501753127</v>
+        <v>0.9903833977892589</v>
       </c>
       <c r="L9">
-        <v>0.2008787303918922</v>
+        <v>0.2350476801351959</v>
       </c>
       <c r="M9">
-        <v>0.3199426687956404</v>
+        <v>0.2804778945916766</v>
       </c>
       <c r="N9">
-        <v>1.73522667407876</v>
+        <v>3.328632966748316</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.802459004734288</v>
+        <v>1.223254214587485</v>
       </c>
       <c r="C10">
-        <v>0.2134107173050523</v>
+        <v>0.06933480250528135</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.02128535504021123</v>
+        <v>0.04748762136869544</v>
       </c>
       <c r="F10">
-        <v>2.275587181990815</v>
+        <v>0.6702781546542269</v>
       </c>
       <c r="G10">
-        <v>0.0008303169154396266</v>
+        <v>0.002572071575130529</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.143023587372006</v>
+        <v>1.91272681111581</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.835922257831356</v>
+        <v>1.059473802901806</v>
       </c>
       <c r="L10">
-        <v>0.2298518346142089</v>
+        <v>0.2406888170787767</v>
       </c>
       <c r="M10">
-        <v>0.3748452070969464</v>
+        <v>0.2926420275941553</v>
       </c>
       <c r="N10">
-        <v>1.661348028260974</v>
+        <v>3.298659533339759</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.930693708926356</v>
+        <v>1.252883768583189</v>
       </c>
       <c r="C11">
-        <v>0.2304706161999519</v>
+        <v>0.07379379874066672</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.02185481908897025</v>
+        <v>0.04751015061986408</v>
       </c>
       <c r="F11">
-        <v>2.451628164639231</v>
+        <v>0.7176906081379002</v>
       </c>
       <c r="G11">
-        <v>0.0008258330999416824</v>
+        <v>0.002569565291282631</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.164527230712956</v>
+        <v>1.912900185453871</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.9704338020872</v>
+        <v>1.091463094742124</v>
       </c>
       <c r="L11">
-        <v>0.2434104599181381</v>
+        <v>0.2433702135859193</v>
       </c>
       <c r="M11">
-        <v>0.4004005649379323</v>
+        <v>0.2983245569976418</v>
       </c>
       <c r="N11">
-        <v>1.630289426048364</v>
+        <v>3.285907143506009</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.979690887865502</v>
+        <v>1.264193911927066</v>
       </c>
       <c r="C12">
-        <v>0.2370053973775725</v>
+        <v>0.0754858462797614</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.0220738775221534</v>
+        <v>0.04752053189641003</v>
       </c>
       <c r="F12">
-        <v>2.518780942186339</v>
+        <v>0.7356546913071611</v>
       </c>
       <c r="G12">
-        <v>0.0008241466728733304</v>
+        <v>0.002568634054653</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.173042588986526</v>
+        <v>1.913074174925434</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>2.021852270615881</v>
+        <v>1.103657219062228</v>
       </c>
       <c r="L12">
-        <v>0.2486054250946523</v>
+        <v>0.2444021389457163</v>
       </c>
       <c r="M12">
-        <v>0.4101718944536614</v>
+        <v>0.3004977905412645</v>
       </c>
       <c r="N12">
-        <v>1.618918838351675</v>
+        <v>3.281205179267488</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.96911813058216</v>
+        <v>1.26175406725929</v>
       </c>
       <c r="C13">
-        <v>0.2355945226387064</v>
+        <v>0.07512127537199831</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.0220265437021645</v>
+        <v>0.04751821396857636</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>0.7317853510981394</v>
       </c>
       <c r="G13">
-        <v>0.0008245093833726425</v>
+        <v>0.002568833821146461</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.17119156745192</v>
+        <v>1.913031883595878</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>2.010755943742026</v>
+        <v>1.101027417287639</v>
       </c>
       <c r="L13">
-        <v>0.2474837966934444</v>
+        <v>0.2441791602514627</v>
       </c>
       <c r="M13">
-        <v>0.4080630993125283</v>
+        <v>0.300028795486206</v>
       </c>
       <c r="N13">
-        <v>1.621349916061902</v>
+        <v>3.282212176454109</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.934715653091189</v>
+        <v>1.253812456792588</v>
       </c>
       <c r="C14">
-        <v>0.2310066790394671</v>
+        <v>0.07393293336319573</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.02187277136246024</v>
+        <v>0.0475109676694121</v>
       </c>
       <c r="F14">
-        <v>2.457142640142251</v>
+        <v>0.7191683204515869</v>
       </c>
       <c r="G14">
-        <v>0.0008256941331924288</v>
+        <v>0.002569488320866881</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.165220143247232</v>
+        <v>1.912912327986334</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.974654012024075</v>
+        <v>1.092464699937722</v>
       </c>
       <c r="L14">
-        <v>0.2438366008585575</v>
+        <v>0.2434547794112092</v>
       </c>
       <c r="M14">
-        <v>0.4012025080852766</v>
+        <v>0.2985029219296109</v>
       </c>
       <c r="N14">
-        <v>1.629345985923194</v>
+        <v>3.285517762084865</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.913701742527905</v>
+        <v>1.24895971553056</v>
       </c>
       <c r="C15">
-        <v>0.2282065286307073</v>
+        <v>0.07320550115547064</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.02177903307600637</v>
+        <v>0.04750676975339019</v>
       </c>
       <c r="F15">
-        <v>2.428326063099846</v>
+        <v>0.7114413442032514</v>
       </c>
       <c r="G15">
-        <v>0.0008264212876661144</v>
+        <v>0.002569891541663822</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.161611938924835</v>
+        <v>1.91285320771695</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.952605152239414</v>
+        <v>1.087230268046056</v>
       </c>
       <c r="L15">
-        <v>0.2416106734783341</v>
+        <v>0.2430132282014767</v>
       </c>
       <c r="M15">
-        <v>0.3970127823845857</v>
+        <v>0.2975710637311977</v>
       </c>
       <c r="N15">
-        <v>1.634295435435135</v>
+        <v>3.287559084340202</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.794136841602182</v>
+        <v>1.221330468951805</v>
       </c>
       <c r="C16">
-        <v>0.2123056599166375</v>
+        <v>0.06904388428601749</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.02124860439518628</v>
+        <v>0.04748640838849205</v>
       </c>
       <c r="F16">
-        <v>2.26414724522013</v>
+        <v>0.6671810134426437</v>
       </c>
       <c r="G16">
-        <v>0.0008306116175337074</v>
+        <v>0.002572237867852488</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.141668634145724</v>
+        <v>1.912730636421074</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.827195675380693</v>
+        <v>1.057394489223356</v>
       </c>
       <c r="L16">
-        <v>0.2289738796868193</v>
+        <v>0.2405158974357278</v>
       </c>
       <c r="M16">
-        <v>0.3731876644709473</v>
+        <v>0.2922736555318721</v>
       </c>
       <c r="N16">
-        <v>1.663431081408234</v>
+        <v>3.299510707380534</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.721509705869522</v>
+        <v>1.204541467718144</v>
       </c>
       <c r="C17">
-        <v>0.2026724059394809</v>
+        <v>0.06649703814743191</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.02092903948507896</v>
+        <v>0.04747722190587567</v>
       </c>
       <c r="F17">
-        <v>2.1642275708721</v>
+        <v>0.6400460337125793</v>
       </c>
       <c r="G17">
-        <v>0.0008332039978125995</v>
+        <v>0.0025737091301433</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.130063345012005</v>
+        <v>1.912848318189596</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.751053911266752</v>
+        <v>1.039234552375433</v>
       </c>
       <c r="L17">
-        <v>0.221322803410942</v>
+        <v>0.239013354397585</v>
       </c>
       <c r="M17">
-        <v>0.3587275521680411</v>
+        <v>0.289061999455221</v>
       </c>
       <c r="N17">
-        <v>1.68197416552637</v>
+        <v>3.307068828726301</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.679985407338279</v>
+        <v>1.194943979858834</v>
       </c>
       <c r="C18">
-        <v>0.1971729629255208</v>
+        <v>0.06503439661433674</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.02074730799904856</v>
+        <v>0.04747315538503827</v>
       </c>
       <c r="F18">
-        <v>2.107028586650728</v>
+        <v>0.6244449056556647</v>
       </c>
       <c r="G18">
-        <v>0.0008347034258362901</v>
+        <v>0.002574567101065676</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.123609768505382</v>
+        <v>1.912986861363336</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.707531766713799</v>
+        <v>1.028842121068919</v>
       </c>
       <c r="L18">
-        <v>0.2169573435134993</v>
+        <v>0.2381599776787056</v>
       </c>
       <c r="M18">
-        <v>0.3504643678963291</v>
+        <v>0.2872287673749767</v>
       </c>
       <c r="N18">
-        <v>1.692878025298697</v>
+        <v>3.31149913181369</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.665967235749179</v>
+        <v>1.191704592296077</v>
       </c>
       <c r="C19">
-        <v>0.1953177489160396</v>
+        <v>0.06453955261201827</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.02068612651600077</v>
+        <v>0.04747198787808848</v>
       </c>
       <c r="F19">
-        <v>2.087706772594743</v>
+        <v>0.619163680173358</v>
       </c>
       <c r="G19">
-        <v>0.0008352125759410427</v>
+        <v>0.002574859613993733</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.121461841007672</v>
+        <v>1.913045936887251</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.692841010099784</v>
+        <v>1.025332471400958</v>
       </c>
       <c r="L19">
-        <v>0.2154851467970502</v>
+        <v>0.2378729027396673</v>
       </c>
       <c r="M19">
-        <v>0.3476755416678827</v>
+        <v>0.2866104770799964</v>
       </c>
       <c r="N19">
-        <v>1.69661012872902</v>
+        <v>3.313013419117027</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.729214865673356</v>
+        <v>1.206322570227826</v>
       </c>
       <c r="C20">
-        <v>0.2036935309631502</v>
+        <v>0.06676792205166748</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.02096284152609229</v>
+        <v>0.04747807390191028</v>
       </c>
       <c r="F20">
-        <v>2.174835551210137</v>
+        <v>0.642933953830422</v>
       </c>
       <c r="G20">
-        <v>0.0008329271773807118</v>
+        <v>0.002573551297447735</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.131275610599445</v>
+        <v>1.912828456890416</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.759130707356491</v>
+        <v>1.041162256160135</v>
       </c>
       <c r="L20">
-        <v>0.2221335837610923</v>
+        <v>0.2391721803306268</v>
       </c>
       <c r="M20">
-        <v>0.3602612041575526</v>
+        <v>0.2894024342472434</v>
       </c>
       <c r="N20">
-        <v>1.679975385369374</v>
+        <v>3.306255655039251</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.944808182571819</v>
+        <v>1.256142657279213</v>
       </c>
       <c r="C21">
-        <v>0.2323521283735488</v>
+        <v>0.07428188185028262</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.02191784345980352</v>
+        <v>0.04751304594756611</v>
       </c>
       <c r="F21">
-        <v>2.470978708896922</v>
+        <v>0.7228739723491628</v>
       </c>
       <c r="G21">
-        <v>0.0008253458411842938</v>
+        <v>0.002569295595062189</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.166963727312094</v>
+        <v>1.912944503502686</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.985244444303135</v>
+        <v>1.094977593639527</v>
       </c>
       <c r="L21">
-        <v>0.2449061739020095</v>
+        <v>0.2436670989974346</v>
       </c>
       <c r="M21">
-        <v>0.4032149869538841</v>
+        <v>0.2989505279968157</v>
       </c>
       <c r="N21">
-        <v>1.626986541315858</v>
+        <v>3.284543380986833</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.088288616289844</v>
+        <v>1.289227895961631</v>
       </c>
       <c r="C22">
-        <v>0.2515224062828878</v>
+        <v>0.07921326536960294</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.02256201575738892</v>
+        <v>0.04754668093620218</v>
       </c>
       <c r="F22">
-        <v>2.667416158031983</v>
+        <v>0.7751780083420101</v>
       </c>
       <c r="G22">
-        <v>0.0008204573964379633</v>
+        <v>0.002566618183555793</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.192475120719934</v>
+        <v>1.913651852840005</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>2.13586335703863</v>
+        <v>1.130618086817179</v>
       </c>
       <c r="L22">
-        <v>0.2601459215890856</v>
+        <v>0.2467011751859616</v>
       </c>
       <c r="M22">
-        <v>0.4318417707974405</v>
+        <v>0.3053153759216301</v>
       </c>
       <c r="N22">
-        <v>1.59464507266479</v>
+        <v>3.271094005049719</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.011456048332093</v>
+        <v>1.271521715232211</v>
       </c>
       <c r="C23">
-        <v>0.2412468832053776</v>
+        <v>0.07657937855771024</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.02221629709313966</v>
+        <v>0.04752774600327569</v>
       </c>
       <c r="F23">
-        <v>2.562285531758803</v>
+        <v>0.7472568307830727</v>
       </c>
       <c r="G23">
-        <v>0.0008230607865102454</v>
+        <v>0.002568037687380108</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.178648075814095</v>
+        <v>1.913216517401708</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>2.055194124390511</v>
+        <v>1.111553169318483</v>
       </c>
       <c r="L23">
-        <v>0.2519773723893621</v>
+        <v>0.2450730217001365</v>
       </c>
       <c r="M23">
-        <v>0.416508633135571</v>
+        <v>0.3019069485807861</v>
       </c>
       <c r="N23">
-        <v>1.611688228718393</v>
+        <v>3.278204347751924</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.725730650371901</v>
+        <v>1.205517163279382</v>
       </c>
       <c r="C24">
-        <v>0.2032317601225628</v>
+        <v>0.06664545054401572</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.02094755343965282</v>
+        <v>0.04747768492981486</v>
       </c>
       <c r="F24">
-        <v>2.170038921572868</v>
+        <v>0.6416283278902171</v>
       </c>
       <c r="G24">
-        <v>0.0008330522996417385</v>
+        <v>0.002573622615903011</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.130726867181167</v>
+        <v>1.912837215370622</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.755478404950537</v>
+        <v>1.040290591892301</v>
       </c>
       <c r="L24">
-        <v>0.2217669268707425</v>
+        <v>0.2391003425581317</v>
       </c>
       <c r="M24">
-        <v>0.3595676847540616</v>
+        <v>0.2892484825834742</v>
       </c>
       <c r="N24">
-        <v>1.680878278175442</v>
+        <v>3.306623025960121</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.42687365785352</v>
+        <v>1.136580675284364</v>
       </c>
       <c r="C25">
-        <v>0.1637735906172253</v>
+        <v>0.05601519952408296</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.01965754934991448</v>
+        <v>0.04747026165365575</v>
       </c>
       <c r="F25">
-        <v>1.757113814925063</v>
+        <v>0.5279251897347166</v>
       </c>
       <c r="G25">
-        <v>0.0008441532689761825</v>
+        <v>0.002580096070573106</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.087401856868752</v>
+        <v>1.915136686710014</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.442411856611301</v>
+        <v>0.9654363420362415</v>
       </c>
       <c r="L25">
-        <v>0.1905066922704535</v>
+        <v>0.2330726063093422</v>
       </c>
       <c r="M25">
-        <v>0.3001725504174928</v>
+        <v>0.276130701227487</v>
       </c>
       <c r="N25">
-        <v>1.764545964260662</v>
+        <v>3.340452608446697</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_188/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_188/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.087760546121217</v>
+        <v>1.213108670400032</v>
       </c>
       <c r="C2">
-        <v>0.04825589860627133</v>
+        <v>0.1357092331471108</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.04750515606672234</v>
+        <v>0.01876768427267184</v>
       </c>
       <c r="F2">
-        <v>0.4443680307746263</v>
+        <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.002585252955586159</v>
+        <v>0.0008526450006385105</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.919155205181539</v>
+        <v>1.061676477256192</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.9120395085126347</v>
+        <v>1.218699836300488</v>
       </c>
       <c r="L2">
-        <v>0.2289908694571707</v>
+        <v>0.1684227731296417</v>
       </c>
       <c r="M2">
-        <v>0.2669324270465125</v>
+        <v>0.2578214559137919</v>
       </c>
       <c r="N2">
-        <v>3.368090532953836</v>
+        <v>1.833149549660057</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.055881317380909</v>
+        <v>1.071379843969851</v>
       </c>
       <c r="C3">
-        <v>0.04303695656498974</v>
+        <v>0.1171562663979842</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.0475541415498828</v>
+        <v>0.01819865713562319</v>
       </c>
       <c r="F3">
-        <v>0.387822817061874</v>
+        <v>1.260820407314654</v>
       </c>
       <c r="G3">
-        <v>0.002588993524376928</v>
+        <v>0.0008586162871901487</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.923327444675095</v>
+        <v>1.047642121170554</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.8769177771089858</v>
+        <v>1.070445542327377</v>
       </c>
       <c r="L3">
-        <v>0.2264469966731184</v>
+        <v>0.1539455849273637</v>
       </c>
       <c r="M3">
-        <v>0.2609855045765883</v>
+        <v>0.2298215660192398</v>
       </c>
       <c r="N3">
-        <v>3.388522768829588</v>
+        <v>1.883669112887027</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.036902547631684</v>
+        <v>0.9856758108595045</v>
       </c>
       <c r="C4">
-        <v>0.03985125068159334</v>
+        <v>0.105950272463545</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.04759677392551875</v>
+        <v>0.01786506533113563</v>
       </c>
       <c r="F4">
-        <v>0.3531389305168915</v>
+        <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.00259141213044032</v>
+        <v>0.0008623948073265871</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.926603453672207</v>
+        <v>1.040566843659036</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.855877347986933</v>
+        <v>0.9808099540758235</v>
       </c>
       <c r="L4">
-        <v>0.224994802584682</v>
+        <v>0.1452701447124056</v>
       </c>
       <c r="M4">
-        <v>0.2574755925714953</v>
+        <v>0.2129280108021945</v>
       </c>
       <c r="N4">
-        <v>3.401907344600104</v>
+        <v>1.916572515547735</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.029318433428671</v>
+        <v>0.9510506344452665</v>
       </c>
       <c r="C5">
-        <v>0.0385576726479826</v>
+        <v>0.1014243385226621</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.04761731357747756</v>
+        <v>0.01773296022516924</v>
       </c>
       <c r="F5">
-        <v>0.3390132514313251</v>
+        <v>1.090973950927989</v>
       </c>
       <c r="G5">
-        <v>0.002592428476196738</v>
+        <v>0.0008639635217931362</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.928118036153698</v>
+        <v>1.03805267086436</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.84743511696675</v>
+        <v>0.9445972289366864</v>
       </c>
       <c r="L5">
-        <v>0.2244306541614236</v>
+        <v>0.1417847551934912</v>
       </c>
       <c r="M5">
-        <v>0.2560809107140933</v>
+        <v>0.2061123081821172</v>
       </c>
       <c r="N5">
-        <v>3.407572596812294</v>
+        <v>1.930440480687572</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.028068156521499</v>
+        <v>0.9453183805009076</v>
       </c>
       <c r="C6">
-        <v>0.0383431515764272</v>
+        <v>0.1006750929537645</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.04762091570789462</v>
+        <v>0.01771125219190228</v>
       </c>
       <c r="F6">
-        <v>0.336668177824194</v>
+        <v>1.082851457025455</v>
       </c>
       <c r="G6">
-        <v>0.002592599099436352</v>
+        <v>0.0008642257742678006</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.92838037727001</v>
+        <v>1.037656961330455</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.8460412594631634</v>
+        <v>0.9386021250714691</v>
       </c>
       <c r="L6">
-        <v>0.224338647689116</v>
+        <v>0.1412089176356304</v>
       </c>
       <c r="M6">
-        <v>0.2558514786291681</v>
+        <v>0.2049845243647148</v>
       </c>
       <c r="N6">
-        <v>3.408526045238176</v>
+        <v>1.93277060344596</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.036799658429999</v>
+        <v>0.9852076695004257</v>
       </c>
       <c r="C7">
-        <v>0.03983378643690116</v>
+        <v>0.1058890774789347</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.04759703809597582</v>
+        <v>0.01786326835467911</v>
       </c>
       <c r="F7">
-        <v>0.3529483938344953</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.002591425712743238</v>
+        <v>0.0008624158454075523</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.926623152769942</v>
+        <v>1.0405314661378</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.8557629589398914</v>
+        <v>0.9803203488596353</v>
       </c>
       <c r="L7">
-        <v>0.2249870823528468</v>
+        <v>0.1452229422389664</v>
       </c>
       <c r="M7">
-        <v>0.2574566390510995</v>
+        <v>0.212835822559363</v>
       </c>
       <c r="N7">
-        <v>3.401982894233797</v>
+        <v>1.916757701154701</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.076645170747952</v>
+        <v>1.163947371834183</v>
       </c>
       <c r="C8">
-        <v>0.04645246046665363</v>
+        <v>0.1292698594391055</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.0475194461011279</v>
+        <v>0.01856812157645216</v>
       </c>
       <c r="F8">
-        <v>0.4248636149813336</v>
+        <v>1.39074283177348</v>
       </c>
       <c r="G8">
-        <v>0.002586517465048233</v>
+        <v>0.0008546810886639123</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.920445539033842</v>
+        <v>1.056505809552078</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.8998206917717368</v>
+        <v>1.16727028739993</v>
       </c>
       <c r="L8">
-        <v>0.2280909815213192</v>
+        <v>0.1633843444506624</v>
       </c>
       <c r="M8">
-        <v>0.2648525817058776</v>
+        <v>0.2481010940594324</v>
       </c>
       <c r="N8">
-        <v>3.374961371293992</v>
+        <v>1.850168781225527</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.159500748984556</v>
+        <v>1.526457984770843</v>
       </c>
       <c r="C9">
-        <v>0.05958514405088522</v>
+        <v>0.1768901709516228</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.04746651352291309</v>
+        <v>0.02008229824374475</v>
       </c>
       <c r="F9">
-        <v>0.5661985755041457</v>
+        <v>1.895061171842812</v>
       </c>
       <c r="G9">
-        <v>0.002577855093571557</v>
+        <v>0.0008403669933041386</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.914000623620019</v>
+        <v>1.100972645723019</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.9903833977892589</v>
+        <v>1.546687501753127</v>
       </c>
       <c r="L9">
-        <v>0.2350476801351959</v>
+        <v>0.2008787303919064</v>
       </c>
       <c r="M9">
-        <v>0.2804778945916766</v>
+        <v>0.3199426687956333</v>
       </c>
       <c r="N9">
-        <v>3.328632966748316</v>
+        <v>1.735226674078845</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.223254214587485</v>
+        <v>1.802459004734146</v>
       </c>
       <c r="C10">
-        <v>0.06933480250528135</v>
+        <v>0.2134107173052229</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.04748762136869544</v>
+        <v>0.02128535504023432</v>
       </c>
       <c r="F10">
-        <v>0.6702781546542269</v>
+        <v>2.275587181990787</v>
       </c>
       <c r="G10">
-        <v>0.002572071575130529</v>
+        <v>0.0008303169153932604</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.91272681111581</v>
+        <v>1.143023587372014</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.059473802901806</v>
+        <v>1.835922257831299</v>
       </c>
       <c r="L10">
-        <v>0.2406888170787767</v>
+        <v>0.2298518346142089</v>
       </c>
       <c r="M10">
-        <v>0.2926420275941553</v>
+        <v>0.3748452070969392</v>
       </c>
       <c r="N10">
-        <v>3.298659533339759</v>
+        <v>1.66134802826096</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.252883768583189</v>
+        <v>1.930693708926412</v>
       </c>
       <c r="C11">
-        <v>0.07379379874066672</v>
+        <v>0.2304706161997245</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.04751015061986408</v>
+        <v>0.0218548190889809</v>
       </c>
       <c r="F11">
-        <v>0.7176906081379002</v>
+        <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.002569565291282631</v>
+        <v>0.0008258330999701604</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.912900185453871</v>
+        <v>1.164527230712977</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.091463094742124</v>
+        <v>1.970433802087115</v>
       </c>
       <c r="L11">
-        <v>0.2433702135859193</v>
+        <v>0.243410459918266</v>
       </c>
       <c r="M11">
-        <v>0.2983245569976418</v>
+        <v>0.4004005649379252</v>
       </c>
       <c r="N11">
-        <v>3.285907143506009</v>
+        <v>1.630289426048378</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.264193911927066</v>
+        <v>1.979690887865502</v>
       </c>
       <c r="C12">
-        <v>0.0754858462797614</v>
+        <v>0.2370053973771462</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.04752053189641003</v>
+        <v>0.02207387752213741</v>
       </c>
       <c r="F12">
-        <v>0.7356546913071611</v>
+        <v>2.518780942186368</v>
       </c>
       <c r="G12">
-        <v>0.002568634054653</v>
+        <v>0.0008241466728442329</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.913074174925434</v>
+        <v>1.173042588986505</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.103657219062228</v>
+        <v>2.021852270615938</v>
       </c>
       <c r="L12">
-        <v>0.2444021389457163</v>
+        <v>0.2486054250946665</v>
       </c>
       <c r="M12">
-        <v>0.3004977905412645</v>
+        <v>0.4101718944536614</v>
       </c>
       <c r="N12">
-        <v>3.281205179267488</v>
+        <v>1.618918838351732</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.26175406725929</v>
+        <v>1.969118130582387</v>
       </c>
       <c r="C13">
-        <v>0.07512127537199831</v>
+        <v>0.2355945226384932</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.04751821396857636</v>
+        <v>0.02202654370216095</v>
       </c>
       <c r="F13">
-        <v>0.7317853510981394</v>
+        <v>2.504295469236112</v>
       </c>
       <c r="G13">
-        <v>0.002568833821146461</v>
+        <v>0.0008245093833541218</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.913031883595878</v>
+        <v>1.171191567451906</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.101027417287639</v>
+        <v>2.010755943741941</v>
       </c>
       <c r="L13">
-        <v>0.2441791602514627</v>
+        <v>0.2474837966935013</v>
       </c>
       <c r="M13">
-        <v>0.300028795486206</v>
+        <v>0.4080630993125212</v>
       </c>
       <c r="N13">
-        <v>3.282212176454109</v>
+        <v>1.621349916061888</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.253812456792588</v>
+        <v>1.934715653091303</v>
       </c>
       <c r="C14">
-        <v>0.07393293336319573</v>
+        <v>0.2310066790396235</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.0475109676694121</v>
+        <v>0.02187277136245669</v>
       </c>
       <c r="F14">
-        <v>0.7191683204515869</v>
+        <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.002569488320866881</v>
+        <v>0.0008256941331901662</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.912912327986334</v>
+        <v>1.16522014324724</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.092464699937722</v>
+        <v>1.974654012024047</v>
       </c>
       <c r="L14">
-        <v>0.2434547794112092</v>
+        <v>0.2438366008586144</v>
       </c>
       <c r="M14">
-        <v>0.2985029219296109</v>
+        <v>0.4012025080852908</v>
       </c>
       <c r="N14">
-        <v>3.285517762084865</v>
+        <v>1.629345985923223</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.24895971553056</v>
+        <v>1.913701742527735</v>
       </c>
       <c r="C15">
-        <v>0.07320550115547064</v>
+        <v>0.2282065286307073</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.04750676975339019</v>
+        <v>0.02177903307597262</v>
       </c>
       <c r="F15">
-        <v>0.7114413442032514</v>
+        <v>2.428326063099846</v>
       </c>
       <c r="G15">
-        <v>0.002569891541663822</v>
+        <v>0.0008264212876645533</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.91285320771695</v>
+        <v>1.161611938924828</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.087230268046056</v>
+        <v>1.952605152239528</v>
       </c>
       <c r="L15">
-        <v>0.2430132282014767</v>
+        <v>0.2416106734782062</v>
       </c>
       <c r="M15">
-        <v>0.2975710637311977</v>
+        <v>0.3970127823845786</v>
       </c>
       <c r="N15">
-        <v>3.287559084340202</v>
+        <v>1.634295435435121</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.221330468951805</v>
+        <v>1.794136841602437</v>
       </c>
       <c r="C16">
-        <v>0.06904388428601749</v>
+        <v>0.212305659916268</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.04748640838849205</v>
+        <v>0.02124860439518095</v>
       </c>
       <c r="F16">
-        <v>0.6671810134426437</v>
+        <v>2.26414724522013</v>
       </c>
       <c r="G16">
-        <v>0.002572237867852488</v>
+        <v>0.0008306116175592578</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.912730636421074</v>
+        <v>1.141668634145717</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.057394489223356</v>
+        <v>1.827195675380693</v>
       </c>
       <c r="L16">
-        <v>0.2405158974357278</v>
+        <v>0.2289738796868477</v>
       </c>
       <c r="M16">
-        <v>0.2922736555318721</v>
+        <v>0.3731876644709686</v>
       </c>
       <c r="N16">
-        <v>3.299510707380534</v>
+        <v>1.663431081408291</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.204541467718144</v>
+        <v>1.721509705869522</v>
       </c>
       <c r="C17">
-        <v>0.06649703814743191</v>
+        <v>0.2026724059393672</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.04747722190587567</v>
+        <v>0.02092903948508962</v>
       </c>
       <c r="F17">
-        <v>0.6400460337125793</v>
+        <v>2.164227570872086</v>
       </c>
       <c r="G17">
-        <v>0.0025737091301433</v>
+        <v>0.0008332039977669538</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.912848318189596</v>
+        <v>1.130063345012026</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.039234552375433</v>
+        <v>1.751053911266808</v>
       </c>
       <c r="L17">
-        <v>0.239013354397585</v>
+        <v>0.221322803410942</v>
       </c>
       <c r="M17">
-        <v>0.289061999455221</v>
+        <v>0.3587275521680198</v>
       </c>
       <c r="N17">
-        <v>3.307068828726301</v>
+        <v>1.681974165526341</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.194943979858834</v>
+        <v>1.679985407338279</v>
       </c>
       <c r="C18">
-        <v>0.06503439661433674</v>
+        <v>0.1971729629254924</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.04747315538503827</v>
+        <v>0.0207473079990077</v>
       </c>
       <c r="F18">
-        <v>0.6244449056556647</v>
+        <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.002574567101065676</v>
+        <v>0.0008347034258232129</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.912986861363336</v>
+        <v>1.123609768505382</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.028842121068919</v>
+        <v>1.707531766713856</v>
       </c>
       <c r="L18">
-        <v>0.2381599776787056</v>
+        <v>0.2169573435134424</v>
       </c>
       <c r="M18">
-        <v>0.2872287673749767</v>
+        <v>0.3504643678963077</v>
       </c>
       <c r="N18">
-        <v>3.31149913181369</v>
+        <v>1.692878025298654</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.191704592296077</v>
+        <v>1.66596723574915</v>
       </c>
       <c r="C19">
-        <v>0.06453955261201827</v>
+        <v>0.1953177489162528</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.04747198787808848</v>
+        <v>0.02068612651599366</v>
       </c>
       <c r="F19">
-        <v>0.619163680173358</v>
+        <v>2.087706772594743</v>
       </c>
       <c r="G19">
-        <v>0.002574859613993733</v>
+        <v>0.0008352125759078569</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.913045936887251</v>
+        <v>1.121461841007672</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.025332471400958</v>
+        <v>1.69284101009967</v>
       </c>
       <c r="L19">
-        <v>0.2378729027396673</v>
+        <v>0.2154851467969934</v>
       </c>
       <c r="M19">
-        <v>0.2866104770799964</v>
+        <v>0.3476755416678827</v>
       </c>
       <c r="N19">
-        <v>3.313013419117027</v>
+        <v>1.696610128728949</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.206322570227826</v>
+        <v>1.729214865673242</v>
       </c>
       <c r="C20">
-        <v>0.06676792205166748</v>
+        <v>0.2036935309631076</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.04747807390191028</v>
+        <v>0.02096284152608341</v>
       </c>
       <c r="F20">
-        <v>0.642933953830422</v>
+        <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.002573551297447735</v>
+        <v>0.0008329271773334163</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.912828456890416</v>
+        <v>1.131275610599431</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.041162256160135</v>
+        <v>1.759130707356462</v>
       </c>
       <c r="L20">
-        <v>0.2391721803306268</v>
+        <v>0.2221335837610638</v>
       </c>
       <c r="M20">
-        <v>0.2894024342472434</v>
+        <v>0.3602612041575455</v>
       </c>
       <c r="N20">
-        <v>3.306255655039251</v>
+        <v>1.679975385369374</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.256142657279213</v>
+        <v>1.944808182571705</v>
       </c>
       <c r="C21">
-        <v>0.07428188185028262</v>
+        <v>0.2323521283733641</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.04751304594756611</v>
+        <v>0.02191784345980352</v>
       </c>
       <c r="F21">
-        <v>0.7228739723491628</v>
+        <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.002569295595062189</v>
+        <v>0.0008253458411835378</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.912944503502686</v>
+        <v>1.166963727312101</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.094977593639527</v>
+        <v>1.985244444303163</v>
       </c>
       <c r="L21">
-        <v>0.2436670989974346</v>
+        <v>0.2449061739019953</v>
       </c>
       <c r="M21">
-        <v>0.2989505279968157</v>
+        <v>0.4032149869538699</v>
       </c>
       <c r="N21">
-        <v>3.284543380986833</v>
+        <v>1.626986541315858</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.289227895961631</v>
+        <v>2.088288616289901</v>
       </c>
       <c r="C22">
-        <v>0.07921326536960294</v>
+        <v>0.2515224062824757</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.04754668093620218</v>
+        <v>0.02256201575740135</v>
       </c>
       <c r="F22">
-        <v>0.7751780083420101</v>
+        <v>2.667416158031969</v>
       </c>
       <c r="G22">
-        <v>0.002566618183555793</v>
+        <v>0.0008204573965142625</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.913651852840005</v>
+        <v>1.192475120719962</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.130618086817179</v>
+        <v>2.135863357038602</v>
       </c>
       <c r="L22">
-        <v>0.2467011751859616</v>
+        <v>0.2601459215890287</v>
       </c>
       <c r="M22">
-        <v>0.3053153759216301</v>
+        <v>0.4318417707974547</v>
       </c>
       <c r="N22">
-        <v>3.271094005049719</v>
+        <v>1.594645072664818</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.271521715232211</v>
+        <v>2.01145604833215</v>
       </c>
       <c r="C23">
-        <v>0.07657937855771024</v>
+        <v>0.2412468832053065</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.04752774600327569</v>
+        <v>0.02221629709315032</v>
       </c>
       <c r="F23">
-        <v>0.7472568307830727</v>
+        <v>2.562285531758775</v>
       </c>
       <c r="G23">
-        <v>0.002568037687380108</v>
+        <v>0.000823060786537852</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.913216517401708</v>
+        <v>1.178648075814102</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.111553169318483</v>
+        <v>2.05519412439034</v>
       </c>
       <c r="L23">
-        <v>0.2450730217001365</v>
+        <v>0.251977372389419</v>
       </c>
       <c r="M23">
-        <v>0.3019069485807861</v>
+        <v>0.4165086331355639</v>
       </c>
       <c r="N23">
-        <v>3.278204347751924</v>
+        <v>1.611688228718322</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.205517163279382</v>
+        <v>1.725730650372128</v>
       </c>
       <c r="C24">
-        <v>0.06664545054401572</v>
+        <v>0.2032317601226339</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.04747768492981486</v>
+        <v>0.02094755343963151</v>
       </c>
       <c r="F24">
-        <v>0.6416283278902171</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.002573622615903011</v>
+        <v>0.0008330522996370382</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.912837215370622</v>
+        <v>1.13072686718116</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.040290591892301</v>
+        <v>1.755478404950566</v>
       </c>
       <c r="L24">
-        <v>0.2391003425581317</v>
+        <v>0.2217669268707851</v>
       </c>
       <c r="M24">
-        <v>0.2892484825834742</v>
+        <v>0.3595676847540474</v>
       </c>
       <c r="N24">
-        <v>3.306623025960121</v>
+        <v>1.680878278175413</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.136580675284364</v>
+        <v>1.426873657853321</v>
       </c>
       <c r="C25">
-        <v>0.05601519952408296</v>
+        <v>0.1637735906172111</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.04747026165365575</v>
+        <v>0.01965754934996955</v>
       </c>
       <c r="F25">
-        <v>0.5279251897347166</v>
+        <v>1.757113814925091</v>
       </c>
       <c r="G25">
-        <v>0.002580096070573106</v>
+        <v>0.0008441532690182108</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.915136686710014</v>
+        <v>1.087401856868759</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.9654363420362415</v>
+        <v>1.442411856611329</v>
       </c>
       <c r="L25">
-        <v>0.2330726063093422</v>
+        <v>0.1905066922704179</v>
       </c>
       <c r="M25">
-        <v>0.276130701227487</v>
+        <v>0.3001725504174999</v>
       </c>
       <c r="N25">
-        <v>3.340452608446697</v>
+        <v>1.764545964260705</v>
       </c>
       <c r="O25">
         <v>0</v>
